--- a/Match/0307/計算/result_analysis.xlsx
+++ b/Match/0307/計算/result_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\Match\0307\計算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EC3E3D-E2CA-4F1A-9041-A34DD4B3EA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32898E-126E-4FB4-B7A0-69AAFB0E077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -464,885 +464,886 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.58203125" customWidth="1"/>
+    <col min="2" max="11" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B2">
         <v>80</v>
       </c>
-      <c r="B2">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D2">
         <v>3.78</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>17.546999999999997</v>
       </c>
-      <c r="E2">
-        <f>C2/D2</f>
+      <c r="F2">
+        <f>D2/E2</f>
         <v>0.21542143956231838</v>
       </c>
-      <c r="F2">
-        <v>0.1104</v>
-      </c>
       <c r="G2">
-        <f>E2-F2</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H2">
+        <f>F2-G2</f>
         <v>0.10502143956231838</v>
       </c>
-      <c r="H2">
-        <f>B2*B2*A2</f>
+      <c r="I2">
+        <f>C2*C2*B2</f>
         <v>2080.7999999999997</v>
       </c>
-      <c r="I2">
-        <f>G2/H2</f>
+      <c r="J2">
+        <f>H2/I2</f>
         <v>5.047166453398616E-5</v>
       </c>
-      <c r="J2">
-        <f>I2*1000000000</f>
+      <c r="K2">
+        <f>J2*1000000000</f>
         <v>50471.664533986157</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B3">
         <v>160</v>
       </c>
-      <c r="B3">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D3">
         <v>2.7719999999999998</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.7520000000000007</v>
       </c>
-      <c r="E3">
-        <f>C3/D3</f>
+      <c r="F3">
+        <f>D3/E3</f>
         <v>0.31672760511882991</v>
       </c>
-      <c r="F3">
-        <v>0.1104</v>
-      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">E3-F3</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">F3-G3</f>
         <v>0.20632760511882992</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="1">B3*B3*A3</f>
+      <c r="I3">
+        <f>C3*C3*B3</f>
         <v>4161.5999999999995</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I4" si="2">G3/H3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="1">H3/I3</f>
         <v>4.957891318695452E-5</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J4" si="3">I3*1000000000</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="2">J3*1000000000</f>
         <v>49578.913186954516</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B4">
         <v>240</v>
       </c>
-      <c r="B4">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D4">
         <v>2.556</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.8339999999999996</v>
       </c>
-      <c r="E4">
-        <f>C4/D4</f>
+      <c r="F4">
+        <f>D4/E4</f>
         <v>0.43812135755913612</v>
       </c>
-      <c r="F4">
-        <v>0.1104</v>
-      </c>
       <c r="G4">
+        <v>0.1104</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>0.32772135755913612</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <f>C4*C4*B4</f>
+        <v>6242.4</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>6242.4</v>
-      </c>
-      <c r="I4">
+        <v>5.249925630512882E-5</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>5.249925630512882E-5</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
         <v>52499.256305128823</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
         <v>80</v>
       </c>
-      <c r="B7">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D7">
         <v>5.1120000000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>23.814</v>
       </c>
-      <c r="E7">
-        <f>C7/D7</f>
+      <c r="F7">
+        <f>D7/E7</f>
         <v>0.21466364323507181</v>
       </c>
-      <c r="F7">
-        <v>0.1104</v>
-      </c>
       <c r="G7">
-        <f>E7-F7</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H7">
+        <f>F7-G7</f>
         <v>0.10426364323507181</v>
       </c>
-      <c r="H7">
-        <f>B7*B7*A7</f>
+      <c r="I7">
+        <f>C7*C7*B7</f>
         <v>2080.7999999999997</v>
       </c>
-      <c r="I7">
-        <f>G7/H7</f>
+      <c r="J7">
+        <f>H7/I7</f>
         <v>5.0107479447843053E-5</v>
       </c>
-      <c r="J7">
-        <f>I7*1000000000</f>
+      <c r="K7">
+        <f>J7*1000000000</f>
         <v>50107.479447843056</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
         <v>160</v>
       </c>
-      <c r="B8">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D8">
         <v>3.78</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>11.886999999999999</v>
       </c>
-      <c r="E8">
-        <f>C8/D8</f>
+      <c r="F8">
+        <f>D8/E8</f>
         <v>0.31799444771599228</v>
       </c>
-      <c r="F8">
-        <v>0.1104</v>
-      </c>
       <c r="G8">
-        <f t="shared" ref="G8:G9" si="4">E8-F8</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H9" si="3">F8-G8</f>
         <v>0.20759444771599228</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H9" si="5">B8*B8*A8</f>
+      <c r="I8">
+        <f>C8*C8*B8</f>
         <v>4161.5999999999995</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I9" si="6">G8/H8</f>
+      <c r="J8">
+        <f t="shared" ref="J8:J9" si="4">H8/I8</f>
         <v>4.9883325575738254E-5</v>
       </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J9" si="7">I8*1000000000</f>
+      <c r="K8">
+        <f t="shared" ref="K8:K9" si="5">J8*1000000000</f>
         <v>49883.325575738258</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
         <v>240</v>
       </c>
-      <c r="B9">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D9">
         <v>3.456</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7.9209999999999994</v>
       </c>
-      <c r="E9">
-        <f>C9/D9</f>
+      <c r="F9">
+        <f>D9/E9</f>
         <v>0.43630854690064391</v>
       </c>
-      <c r="F9">
-        <v>0.1104</v>
-      </c>
       <c r="G9">
+        <v>0.1104</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.32590854690064391</v>
+      </c>
+      <c r="I9">
+        <f>C9*C9*B9</f>
+        <v>6242.4</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="4"/>
-        <v>0.32590854690064391</v>
-      </c>
-      <c r="H9">
+        <v>5.2208853469922453E-5</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="5"/>
-        <v>6242.4</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>5.2208853469922453E-5</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="7"/>
         <v>52208.853469922455</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B12">
         <v>80</v>
       </c>
-      <c r="B12">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D12">
         <v>5.4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>25.362000000000002</v>
       </c>
-      <c r="E12">
-        <f>C12/D12</f>
+      <c r="F12">
+        <f>D12/E12</f>
         <v>0.21291696238466998</v>
       </c>
-      <c r="F12">
-        <v>0.1104</v>
-      </c>
       <c r="G12">
-        <f>E12-F12</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H12">
+        <f>F12-G12</f>
         <v>0.10251696238466998</v>
       </c>
-      <c r="H12">
-        <f>B12*B12*A12</f>
+      <c r="I12">
+        <f>C12*C12*B12</f>
         <v>2080.7999999999997</v>
       </c>
-      <c r="I12">
-        <f>G12/H12</f>
+      <c r="J12">
+        <f>H12/I12</f>
         <v>4.9268051895746825E-5</v>
       </c>
-      <c r="J12">
-        <f>I12*1000000000</f>
+      <c r="K12">
+        <f>J12*1000000000</f>
         <v>49268.051895746823</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13">
         <v>160</v>
       </c>
-      <c r="B13">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D13">
         <v>3.9239999999999999</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>12.509999999999998</v>
       </c>
-      <c r="E13">
-        <f>C13/D13</f>
+      <c r="F13">
+        <f>D13/E13</f>
         <v>0.3136690647482015</v>
       </c>
-      <c r="F13">
-        <v>0.1104</v>
-      </c>
       <c r="G13">
-        <f t="shared" ref="G13:G14" si="8">E13-F13</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="6">F13-G13</f>
         <v>0.2032690647482015</v>
       </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="9">B13*B13*A13</f>
+      <c r="I13">
+        <f>C13*C13*B13</f>
         <v>4161.5999999999995</v>
       </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I14" si="10">G13/H13</f>
+      <c r="J13">
+        <f t="shared" ref="J13:J14" si="7">H13/I13</f>
         <v>4.8843969806853503E-5</v>
       </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J14" si="11">I13*1000000000</f>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="8">J13*1000000000</f>
         <v>48843.9698068535</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B14">
         <v>240</v>
       </c>
-      <c r="B14">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D14">
         <v>3.8159999999999998</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9.2159999999999993</v>
       </c>
-      <c r="E14">
-        <f>C14/D14</f>
+      <c r="F14">
+        <f>D14/E14</f>
         <v>0.4140625</v>
       </c>
-      <c r="F14">
-        <v>0.1104</v>
-      </c>
       <c r="G14">
+        <v>0.1104</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0.3036625</v>
+      </c>
+      <c r="I14">
+        <f>C14*C14*B14</f>
+        <v>6242.4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>4.8645152505446625E-5</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="8"/>
-        <v>0.3036625</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="9"/>
-        <v>6242.4</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="10"/>
-        <v>4.8645152505446625E-5</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="11"/>
         <v>48645.152505446626</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>80</v>
       </c>
-      <c r="B17">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D17">
         <v>6.84</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>34.623999999999995</v>
       </c>
-      <c r="E17">
-        <f>C17/D17</f>
+      <c r="F17">
+        <f>D17/E17</f>
         <v>0.197550831792976</v>
       </c>
-      <c r="F17">
-        <v>0.1104</v>
-      </c>
       <c r="G17">
-        <f>E17-F17</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H17">
+        <f>F17-G17</f>
         <v>8.7150831792976002E-2</v>
       </c>
-      <c r="H17">
-        <f>B17*B17*A17</f>
+      <c r="I17">
+        <f>C17*C17*B17</f>
         <v>2080.7999999999997</v>
       </c>
-      <c r="I17">
-        <f>G17/H17</f>
+      <c r="J17">
+        <f>H17/I17</f>
         <v>4.1883329389165715E-5</v>
       </c>
-      <c r="J17">
-        <f>I17*1000000000</f>
+      <c r="K17">
+        <f>J17*1000000000</f>
         <v>41883.329389165716</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>160</v>
       </c>
-      <c r="B18">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D18">
         <v>4.8239999999999998</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>16.997999999999998</v>
       </c>
-      <c r="E18">
-        <f>C18/D18</f>
+      <c r="F18">
+        <f>D18/E18</f>
         <v>0.28379809389339927</v>
       </c>
-      <c r="F18">
-        <v>0.1104</v>
-      </c>
       <c r="G18">
-        <f t="shared" ref="G18:G19" si="12">E18-F18</f>
+        <v>0.1104</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="9">F18-G18</f>
         <v>0.17339809389339927</v>
       </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H19" si="13">B18*B18*A18</f>
+      <c r="I18">
+        <f>C18*C18*B18</f>
         <v>4161.5999999999995</v>
       </c>
-      <c r="I18">
-        <f t="shared" ref="I18:I19" si="14">G18/H18</f>
+      <c r="J18">
+        <f t="shared" ref="J18:J19" si="10">H18/I18</f>
         <v>4.1666208644127092E-5</v>
       </c>
-      <c r="J18">
-        <f t="shared" ref="J18:J19" si="15">I18*1000000000</f>
+      <c r="K18">
+        <f t="shared" ref="K18:K19" si="11">J18*1000000000</f>
         <v>41666.208644127095</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>240</v>
       </c>
-      <c r="B19">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="C19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D19">
         <v>4.3559999999999999</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11.252000000000002</v>
       </c>
-      <c r="E19">
-        <f>C19/D19</f>
+      <c r="F19">
+        <f>D19/E19</f>
         <v>0.38713117667970132</v>
       </c>
-      <c r="F19">
-        <v>0.1104</v>
-      </c>
       <c r="G19">
+        <v>0.1104</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>0.27673117667970132</v>
+      </c>
+      <c r="I19">
+        <f>C19*C19*B19</f>
+        <v>6242.4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="10"/>
+        <v>4.4330894636630359E-5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="11"/>
+        <v>44330.894636630357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D22">
+        <v>12.132</v>
+      </c>
+      <c r="E22">
+        <v>59.197000000000003</v>
+      </c>
+      <c r="F22">
+        <f>D22/E22</f>
+        <v>0.20494281804821188</v>
+      </c>
+      <c r="G22">
+        <v>0.1104</v>
+      </c>
+      <c r="H22">
+        <f>F22-G22</f>
+        <v>9.454281804821188E-2</v>
+      </c>
+      <c r="I22">
+        <f>C22*C22*B22</f>
+        <v>2080.7999999999997</v>
+      </c>
+      <c r="J22">
+        <f>H22/I22</f>
+        <v>4.5435802599102218E-5</v>
+      </c>
+      <c r="K22">
+        <f>J22*1000000000</f>
+        <v>45435.802599102215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>30.349000000000004</v>
+      </c>
+      <c r="F23">
+        <f>D23/E23</f>
+        <v>0.29655013344756004</v>
+      </c>
+      <c r="G23">
+        <v>0.1104</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H24" si="12">F23-G23</f>
+        <v>0.18615013344756004</v>
+      </c>
+      <c r="I23">
+        <f>C23*C23*B23</f>
+        <v>4161.5999999999995</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J24" si="13">H23/I23</f>
+        <v>4.4730424223269909E-5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K24" si="14">J23*1000000000</f>
+        <v>44730.424223269911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>240</v>
+      </c>
+      <c r="C24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D24">
+        <v>7.9920000000000009</v>
+      </c>
+      <c r="E24">
+        <v>19.660000000000004</v>
+      </c>
+      <c r="F24">
+        <f>D24/E24</f>
+        <v>0.40651068158697862</v>
+      </c>
+      <c r="G24">
+        <v>0.1104</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="12"/>
-        <v>0.27673117667970132</v>
-      </c>
-      <c r="H19">
+        <v>0.29611068158697862</v>
+      </c>
+      <c r="I24">
+        <f>C24*C24*B24</f>
+        <v>6242.4</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="13"/>
+        <v>4.7435390488750902E-5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="14"/>
+        <v>47435.390488750905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D27">
+        <v>5.1120000000000001</v>
+      </c>
+      <c r="E27">
+        <v>23.814</v>
+      </c>
+      <c r="F27">
+        <f>D27/E27</f>
+        <v>0.21466364323507181</v>
+      </c>
+      <c r="G27">
+        <v>0.1104</v>
+      </c>
+      <c r="H27">
+        <f>F27-G27</f>
+        <v>0.10426364323507181</v>
+      </c>
+      <c r="I27">
+        <f>C27*C27*B27</f>
+        <v>2080.7999999999997</v>
+      </c>
+      <c r="J27">
+        <f>H27/I27</f>
+        <v>5.0107479447843053E-5</v>
+      </c>
+      <c r="K27">
+        <f>J27*1000000000</f>
+        <v>50107.479447843056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>160</v>
+      </c>
+      <c r="C28">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D28">
+        <v>3.78</v>
+      </c>
+      <c r="E28">
+        <v>11.886999999999999</v>
+      </c>
+      <c r="F28">
+        <f>D28/E28</f>
+        <v>0.31799444771599228</v>
+      </c>
+      <c r="G28">
+        <v>0.1104</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H29" si="15">F28-G28</f>
+        <v>0.20759444771599228</v>
+      </c>
+      <c r="I28">
+        <f>C28*C28*B28</f>
+        <v>4161.5999999999995</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J29" si="16">H28/I28</f>
+        <v>4.9883325575738254E-5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K29" si="17">J28*1000000000</f>
+        <v>49883.325575738258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>240</v>
+      </c>
+      <c r="C29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D29">
+        <v>3.456</v>
+      </c>
+      <c r="E29">
+        <v>7.9209999999999994</v>
+      </c>
+      <c r="F29">
+        <f>D29/E29</f>
+        <v>0.43630854690064391</v>
+      </c>
+      <c r="G29">
+        <v>0.1104</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="15"/>
+        <v>0.32590854690064391</v>
+      </c>
+      <c r="I29">
+        <f>C29*C29*B29</f>
         <v>6242.4</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="14"/>
-        <v>4.4330894636630359E-5</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="15"/>
-        <v>44330.894636630357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>80</v>
-      </c>
-      <c r="B22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C22">
-        <v>12.132</v>
-      </c>
-      <c r="D22">
-        <v>59.197000000000003</v>
-      </c>
-      <c r="E22">
-        <f>C22/D22</f>
-        <v>0.20494281804821188</v>
-      </c>
-      <c r="F22">
-        <v>0.1104</v>
-      </c>
-      <c r="G22">
-        <f>E22-F22</f>
-        <v>9.454281804821188E-2</v>
-      </c>
-      <c r="H22">
-        <f>B22*B22*A22</f>
-        <v>2080.7999999999997</v>
-      </c>
-      <c r="I22">
-        <f>G22/H22</f>
-        <v>4.5435802599102218E-5</v>
-      </c>
-      <c r="J22">
-        <f>I22*1000000000</f>
-        <v>45435.802599102215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>160</v>
-      </c>
-      <c r="B23">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>30.349000000000004</v>
-      </c>
-      <c r="E23">
-        <f>C23/D23</f>
-        <v>0.29655013344756004</v>
-      </c>
-      <c r="F23">
-        <v>0.1104</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G24" si="16">E23-F23</f>
-        <v>0.18615013344756004</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H24" si="17">B23*B23*A23</f>
-        <v>4161.5999999999995</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:I24" si="18">G23/H23</f>
-        <v>4.4730424223269909E-5</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23:J24" si="19">I23*1000000000</f>
-        <v>44730.424223269911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>240</v>
-      </c>
-      <c r="B24">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C24">
-        <v>7.9920000000000009</v>
-      </c>
-      <c r="D24">
-        <v>19.660000000000004</v>
-      </c>
-      <c r="E24">
-        <f>C24/D24</f>
-        <v>0.40651068158697862</v>
-      </c>
-      <c r="F24">
-        <v>0.1104</v>
-      </c>
-      <c r="G24">
+      <c r="J29">
         <f t="shared" si="16"/>
-        <v>0.29611068158697862</v>
-      </c>
-      <c r="H24">
+        <v>5.2208853469922453E-5</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="17"/>
-        <v>6242.4</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="18"/>
-        <v>4.7435390488750902E-5</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="19"/>
-        <v>47435.390488750905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>80</v>
-      </c>
-      <c r="B27">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C27">
-        <v>5.1120000000000001</v>
-      </c>
-      <c r="D27">
-        <v>23.814</v>
-      </c>
-      <c r="E27">
-        <f>C27/D27</f>
-        <v>0.21466364323507181</v>
-      </c>
-      <c r="F27">
-        <v>0.1104</v>
-      </c>
-      <c r="G27">
-        <f>E27-F27</f>
-        <v>0.10426364323507181</v>
-      </c>
-      <c r="H27">
-        <f>B27*B27*A27</f>
-        <v>2080.7999999999997</v>
-      </c>
-      <c r="I27">
-        <f>G27/H27</f>
-        <v>5.0107479447843053E-5</v>
-      </c>
-      <c r="J27">
-        <f>I27*1000000000</f>
-        <v>50107.479447843056</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>160</v>
-      </c>
-      <c r="B28">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C28">
-        <v>3.78</v>
-      </c>
-      <c r="D28">
-        <v>11.886999999999999</v>
-      </c>
-      <c r="E28">
-        <f>C28/D28</f>
-        <v>0.31799444771599228</v>
-      </c>
-      <c r="F28">
-        <v>0.1104</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ref="G28:G29" si="20">E28-F28</f>
-        <v>0.20759444771599228</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H29" si="21">B28*B28*A28</f>
-        <v>4161.5999999999995</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ref="I28:I29" si="22">G28/H28</f>
-        <v>4.9883325575738254E-5</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28:J29" si="23">I28*1000000000</f>
-        <v>49883.325575738258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>240</v>
-      </c>
-      <c r="B29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C29">
-        <v>3.456</v>
-      </c>
-      <c r="D29">
-        <v>7.9209999999999994</v>
-      </c>
-      <c r="E29">
-        <f>C29/D29</f>
-        <v>0.43630854690064391</v>
-      </c>
-      <c r="F29">
-        <v>0.1104</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="20"/>
-        <v>0.32590854690064391</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="21"/>
-        <v>6242.4</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="22"/>
-        <v>5.2208853469922453E-5</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="23"/>
         <v>52208.853469922455</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="B1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H4">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>